--- a/data/trans_dic/P20_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado la relación con sus convivientes</t>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>15,05%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 18,79</t>
+          <t>7,81; 27,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 23,75</t>
+          <t>11,43; 35,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,44</t>
+          <t>5,42; 13,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,31</t>
+          <t>7,7; 16,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 15,56</t>
+          <t>7,58; 17,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 18,23</t>
+          <t>10,98; 23,64</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,26</t>
+          <t>6,44; 17,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 25,95</t>
+          <t>5,15; 15,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 20,32</t>
+          <t>11,07; 21,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,23</t>
+          <t>10,18; 20,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,65</t>
+          <t>9,52; 17,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 19,52</t>
+          <t>8,85; 16,86</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 18,3</t>
+          <t>0,0; 20,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 20,59</t>
+          <t>1,64; 26,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 31,45</t>
+          <t>10,94; 37,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 23,2</t>
+          <t>2,9; 25,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 20,29</t>
+          <t>6,28; 23,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 18,13</t>
+          <t>3,93; 19,03</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>13,45%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,61</t>
+          <t>7,9; 19,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 19,4</t>
+          <t>9,21; 22,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,03</t>
+          <t>9,84; 16,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,15</t>
+          <t>9,79; 16,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,42</t>
+          <t>10,0; 16,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,08</t>
+          <t>10,89; 18,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50578</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>82204</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38652</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59064</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>89230</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>141268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28554; 101943</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49169; 151252</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23585; 58769</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39182; 82943</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60756; 139803</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>103088; 221964</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33906</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32921</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>54166</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64884</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88073</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>97805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19630; 52784</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18492; 55766</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38746; 75949</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43308; 88990</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62354; 113757</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>69459; 132335</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8803</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18726</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11207</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22112</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17706</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1668; 26661</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9036; 31088</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2932; 25856</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10519; 38894</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7982; 38612</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>87871</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>123928</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>111544</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>135155</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>199415</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>259083</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59640; 147328</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>82112; 201072</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>85439; 145957</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>101344; 169018</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>162396; 261455</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>209888; 347601</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>